--- a/analysis/data/2018 CAA.xlsx
+++ b/analysis/data/2018 CAA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c8876\Desktop\SAA\Topics and Gender\CAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F4FECD-ABC4-45F7-859C-A420993F8980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5005B7-9B39-48AF-A6FD-4072658133F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1912,9 +1912,6 @@
     <t>Yunyun</t>
   </si>
   <si>
-    <t>SessionNumber</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -1928,6 +1925,9 @@
   </si>
   <si>
     <t>Dou</t>
+  </si>
+  <si>
+    <t>session</t>
   </si>
 </sst>
 </file>
@@ -2289,20 +2289,20 @@
   <dimension ref="A1:C359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E359" sqref="E359"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
         <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>361</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>484</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3435,7 +3435,7 @@
         <v>523</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -5349,7 +5349,7 @@
         <v>523</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
